--- a/excel2mysql/excels/refresh_in_time.xlsx
+++ b/excel2mysql/excels/refresh_in_time.xlsx
@@ -19,18 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>node_id</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>refresh_table_list</t>
+  </si>
+  <si>
+    <t>varchar(255)||</t>
   </si>
   <si>
     <t>cnt</t>
@@ -363,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,13 +383,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -388,23 +397,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
